--- a/tests/TMP.xlsx
+++ b/tests/TMP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="161">
   <si>
     <t>Numar videouri</t>
   </si>
@@ -496,6 +496,53 @@
   </si>
   <si>
     <t>Time (min)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Processing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> videos on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> kubernetes nodes</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -576,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -587,10 +634,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,7 +685,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$B$5:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -657,7 +712,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$9</c:f>
+              <c:f>Sheet1!$C$5:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -692,11 +747,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213060416"/>
-        <c:axId val="213059840"/>
+        <c:axId val="133522560"/>
+        <c:axId val="133523136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213060416"/>
+        <c:axId val="133522560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -706,12 +761,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213059840"/>
+        <c:crossAx val="133523136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213059840"/>
+        <c:axId val="133523136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="140"/>
@@ -724,7 +779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213060416"/>
+        <c:crossAx val="133522560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -747,15 +802,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>981075</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1064,112 +1119,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O26"/>
+  <dimension ref="B2:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="2" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="15" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>124</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
         <v>128</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-    </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
@@ -1219,7 +1272,16 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1228,115 +1290,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:G27"/>
+  <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="5" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
+    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="1">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
         <v>1024</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D13" s="1">
         <v>4</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E13" s="2">
         <v>0.70688657407407407</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E15" s="2"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>128</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>8.627314814814814E-2</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>128</v>
       </c>
       <c r="D17" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2">
-        <v>8.627314814814814E-2</v>
+        <v>7.2870370370370363E-2</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>4</v>
@@ -1347,13 +1420,16 @@
         <v>128</v>
       </c>
       <c r="D18" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E18" s="2">
-        <v>7.2870370370370363E-2</v>
+        <v>7.1747685185185192E-2</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
@@ -1361,15 +1437,15 @@
         <v>128</v>
       </c>
       <c r="D19" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2">
-        <v>7.1747685185185192E-2</v>
+        <v>7.4861111111111114E-2</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1378,16 +1454,13 @@
         <v>128</v>
       </c>
       <c r="D20" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E20" s="2">
-        <v>7.4861111111111114E-2</v>
+        <v>7.6956018518518521E-2</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G20" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
@@ -1395,74 +1468,86 @@
         <v>128</v>
       </c>
       <c r="D21" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E21" s="2">
-        <v>7.6956018518518521E-2</v>
+        <v>7.7245370370370367E-2</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="1">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
         <v>128</v>
       </c>
-      <c r="D22" s="1">
-        <v>128</v>
-      </c>
-      <c r="E22" s="2">
-        <v>7.7245370370370367E-2</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="D24" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="2">
+        <v>8.6030092592592589E-2</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
         <v>128</v>
       </c>
       <c r="D25" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E25" s="2">
-        <v>8.6030092592592589E-2</v>
+        <v>7.3703703703703702E-2</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <v>128</v>
       </c>
       <c r="D26" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E26" s="2">
-        <v>7.480324074074074E-2</v>
+        <v>7.2777777777777775E-2</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="C27" s="1">
+        <v>128</v>
+      </c>
+      <c r="D27" s="1">
+        <v>32</v>
+      </c>
+      <c r="E27" s="2">
+        <v>7.480324074074074E-2</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>128</v>
+      </c>
+      <c r="D29" s="1">
+        <v>32</v>
+      </c>
+      <c r="E29" s="2">
+        <v>7.5578703703703703E-2</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
